--- a/GACourseAndExamSchedule/ScheduleData/Öğrenci Grupları.xlsx
+++ b/GACourseAndExamSchedule/ScheduleData/Öğrenci Grupları.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GAExamSchedule\Sample Input Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcht6\source\repos\GACourseAndExamSchedule\GACourseAndExamSchedule\ScheduleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA6063C-7780-4838-9CD3-3FF80F12DEF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F90264C-3C37-4C34-B0B6-6184ACBA4292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Günlük Max Ders Saati</t>
   </si>
   <si>
-    <t>Bilgisayar</t>
-  </si>
-  <si>
-    <t>Endüstri</t>
-  </si>
-  <si>
     <t>Günlük Max Sınav Zorluğu</t>
+  </si>
+  <si>
+    <t>Bilgisayar Mühendisliği</t>
+  </si>
+  <si>
+    <t>Endüstri Mühendisliği</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -441,13 +441,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -481,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -501,13 +501,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -521,13 +521,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -541,13 +541,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>4</v>
